--- a/info.xlsx
+++ b/info.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="14265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="indexList" sheetId="2" r:id="rId1"/>
     <sheet name="specialNoTradingDays" sheetId="3" r:id="rId2"/>
+    <sheet name="dir" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>SH000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SH000002</t>
@@ -28,153 +28,469 @@
   </si>
   <si>
     <t>SH000009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SH000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH000016</t>
+  </si>
+  <si>
+    <t>SH000300</t>
+  </si>
+  <si>
+    <t>SH000303</t>
+  </si>
+  <si>
+    <t>SH000849</t>
+  </si>
+  <si>
+    <t>SH000852</t>
+  </si>
+  <si>
+    <t>SH000903</t>
+  </si>
+  <si>
+    <t>SH000904</t>
+  </si>
+  <si>
+    <t>SH000905</t>
+  </si>
+  <si>
+    <t>SH000906</t>
+  </si>
+  <si>
+    <t>SH000908</t>
+  </si>
+  <si>
+    <t>SH000909</t>
+  </si>
+  <si>
+    <t>SH000910</t>
+  </si>
+  <si>
+    <t>SH000911</t>
+  </si>
+  <si>
+    <t>SH000912</t>
+  </si>
+  <si>
+    <t>SH000913</t>
+  </si>
+  <si>
+    <t>SH000914</t>
+  </si>
+  <si>
+    <t>SH000915</t>
+  </si>
+  <si>
+    <t>SH000917</t>
+  </si>
+  <si>
+    <t>SH000951</t>
+  </si>
+  <si>
+    <t>SH000952</t>
   </si>
   <si>
     <t>SZ399001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SZ399005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SZ399006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SZ399008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SZ399101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SZ399102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SZ399106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SZ399107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SZ399108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SZ399673</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH000300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH000303</t>
-  </si>
-  <si>
-    <t>SH000016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH000852</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH000903</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH000904</t>
-  </si>
-  <si>
-    <t>SH000905</t>
-  </si>
-  <si>
-    <t>SH000906</t>
-  </si>
-  <si>
-    <t>SH000908</t>
-  </si>
-  <si>
-    <t>SH000909</t>
-  </si>
-  <si>
-    <t>SH000910</t>
-  </si>
-  <si>
-    <t>SH000911</t>
-  </si>
-  <si>
-    <t>SH000912</t>
-  </si>
-  <si>
-    <t>SH000913</t>
-  </si>
-  <si>
-    <t>SH000914</t>
-  </si>
-  <si>
-    <t>SH000915</t>
-  </si>
-  <si>
-    <t>SH000917</t>
   </si>
   <si>
     <t>SZ399903</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH000951</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH000952</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH000849</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -182,9 +498,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -192,17 +750,61 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -251,7 +853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,7 +888,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,222 +1091,223 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>20180101</v>
       </c>
@@ -712,7 +1315,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>20180215</v>
       </c>
@@ -720,7 +1323,7 @@
         <v>20190204</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>20180216</v>
       </c>
@@ -728,7 +1331,7 @@
         <v>20190205</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>20180217</v>
       </c>
@@ -736,7 +1339,7 @@
         <v>20190206</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>20180218</v>
       </c>
@@ -744,7 +1347,7 @@
         <v>20190207</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>20180219</v>
       </c>
@@ -752,7 +1355,7 @@
         <v>20190208</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>20180220</v>
       </c>
@@ -760,7 +1363,7 @@
         <v>20190209</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>20180221</v>
       </c>
@@ -768,7 +1371,7 @@
         <v>20190210</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>20180405</v>
       </c>
@@ -776,7 +1379,7 @@
         <v>20190405</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>20180406</v>
       </c>
@@ -784,7 +1387,7 @@
         <v>20190406</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>20180407</v>
       </c>
@@ -792,7 +1395,7 @@
         <v>20190407</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>20180420</v>
       </c>
@@ -800,7 +1403,7 @@
         <v>20190501</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>20180430</v>
       </c>
@@ -808,7 +1411,7 @@
         <v>20190607</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>20180501</v>
       </c>
@@ -816,7 +1419,7 @@
         <v>20190608</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>20180616</v>
       </c>
@@ -824,7 +1427,7 @@
         <v>20190609</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>20180617</v>
       </c>
@@ -832,7 +1435,7 @@
         <v>20190913</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>20180618</v>
       </c>
@@ -840,7 +1443,7 @@
         <v>20190914</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>20180922</v>
       </c>
@@ -848,7 +1451,7 @@
         <v>20190915</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>20180923</v>
       </c>
@@ -856,7 +1459,7 @@
         <v>20191001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>20180924</v>
       </c>
@@ -864,7 +1467,7 @@
         <v>20191002</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>20181001</v>
       </c>
@@ -872,7 +1475,7 @@
         <v>20191003</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>20181002</v>
       </c>
@@ -880,7 +1483,7 @@
         <v>20191004</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>20181003</v>
       </c>
@@ -888,7 +1491,7 @@
         <v>20191005</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>20181004</v>
       </c>
@@ -896,7 +1499,7 @@
         <v>20191006</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>20181005</v>
       </c>
@@ -904,29 +1507,45 @@
         <v>20191007</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="1">
         <v>20181006</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" s="1">
         <v>20181007</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="1">
         <v>20181230</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="1">
         <v>20181231</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>